--- a/data/publications/orcid/export_to_manual/Uniwersytet_Szczeciński_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Szczeciński_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,257 +436,280 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ADAM PAWEŁ FALEWICZ</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0412-7602</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Psychological theories of stress and coping</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Studia Paradyskie</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ADAM_PAWEŁ_FALEWICZ_3</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>SYLWIA NATALIA MICHAŁOWSKA</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4504-910X</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Psychosocial context of the decision-making process and the consequences of preventive procedures in a patient with BRCA1 genetic mutation</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Archives of Psychiatry and Psychotherapy</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>SYLWIA_NATALIA_MICHAŁOWSKA_2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>SYLWIA NATALIA MICHAŁOWSKA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4504-910X</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Styles of coping with stress and the level of anxiety in patients with cancer</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2019-06</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Archives of Psychiatry and Psychotherapy</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>SYLWIA_NATALIA_MICHAŁOWSKA_4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>SYLWIA NATALIA MICHAŁOWSKA</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4504-910X</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Components of the psychosocial functioning of carriers of BRCA1 and/or BRCA2 gene mutations</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2018-11</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>SYLWIA_NATALIA_MICHAŁOWSKA_5</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>WOJCIECH ROBERT RODZEŃ</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6194-3286</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Wise functioning and coping strategies in adolescents: Age as an intervening variable</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018-06</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Educational Psychology</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>WOJCIECH_ROBERT_RODZEŃ_6</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>65</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>AGATA HIACYNTA ŚWIĄTEK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4255-6704</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Gratitude to God and positive downstream  indirect reciprocity.  The mediating role of searching  for meaning in life</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>PRZEGLĄD PSYCHOLOGICZNY</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>AGATA_HIACYNTA_ŚWIĄTEK_5</t>
         </is>
